--- a/Experiment 2/Trace Files/vegas-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/vegas-vegas/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>CBR</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Vegas Flow 2</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-820985040"/>
-        <c:axId val="-820997552"/>
+        <c:axId val="1867117504"/>
+        <c:axId val="1867108800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-820985040"/>
+        <c:axId val="1867117504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820997552"/>
+        <c:crossAx val="1867108800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820997552"/>
+        <c:axId val="1867108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -719,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820985040"/>
+        <c:crossAx val="1867117504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-820984496"/>
-        <c:axId val="-820987216"/>
+        <c:axId val="1867107712"/>
+        <c:axId val="1867109344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-820984496"/>
+        <c:axId val="1867107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820987216"/>
+        <c:crossAx val="1867109344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820987216"/>
+        <c:axId val="1867109344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.5"/>
@@ -1316,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820984496"/>
+        <c:crossAx val="1867107712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3005,15 @@
         <v>34.489592375100003</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.45421106412482459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/vegas-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/vegas-vegas/LatencyGraph.xlsx
@@ -248,34 +248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.956918615799999</c:v>
+                  <c:v>65.549511694700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.931425768299999</c:v>
+                  <c:v>65.395283116900004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.9257656847</c:v>
+                  <c:v>65.362594107999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0131963177</c:v>
+                  <c:v>65.868608136999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.2963514584</c:v>
+                  <c:v>67.585286084700002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.649775699500001</c:v>
+                  <c:v>75.706401103999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.190385531099999</c:v>
+                  <c:v>72.949754152799997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.9606244354</c:v>
+                  <c:v>77.571580264100007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.0159259727</c:v>
+                  <c:v>77.9068989899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.181209302300001</c:v>
+                  <c:v>72.806399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.926924703000001</c:v>
+                  <c:v>65.367965004400006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.971031679999999</c:v>
+                  <c:v>65.633923793400001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.944661092600001</c:v>
+                  <c:v>65.475687925200006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.9404390686</c:v>
+                  <c:v>65.446533575299995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3184584499</c:v>
+                  <c:v>67.714243950599993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.825978662400001</c:v>
+                  <c:v>76.764787878800007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.233667196399999</c:v>
+                  <c:v>73.210895038199993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0092978759</c:v>
+                  <c:v>77.864819277099997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.060177833800001</c:v>
+                  <c:v>78.176550152000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.361945945900001</c:v>
+                  <c:v>73.656000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1867117504"/>
-        <c:axId val="1867108800"/>
+        <c:axId val="-1377591456"/>
+        <c:axId val="-1377590368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1867117504"/>
+        <c:axId val="-1377591456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867108800"/>
+        <c:crossAx val="-1377590368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1867108800"/>
+        <c:axId val="-1377590368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867117504"/>
+        <c:crossAx val="-1377591456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.956918615799999</c:v>
+                  <c:v>65.549511694700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.931425768299999</c:v>
+                  <c:v>65.395283116900004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.9257656847</c:v>
+                  <c:v>65.362594107999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0131963177</c:v>
+                  <c:v>65.868608136999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.2963514584</c:v>
+                  <c:v>67.585286084700002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.649775699500001</c:v>
+                  <c:v>75.706401103999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.190385531099999</c:v>
+                  <c:v>72.949754152799997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.9606244354</c:v>
+                  <c:v>77.571580264100007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.0159259727</c:v>
+                  <c:v>77.9068989899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.181209302300001</c:v>
+                  <c:v>72.806399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,34 +1057,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.926924703000001</c:v>
+                  <c:v>65.367965004400006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.971031679999999</c:v>
+                  <c:v>65.633923793400001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.944661092600001</c:v>
+                  <c:v>65.475687925200006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.9404390686</c:v>
+                  <c:v>65.446533575299995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3184584499</c:v>
+                  <c:v>67.714243950599993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.825978662400001</c:v>
+                  <c:v>76.764787878800007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.233667196399999</c:v>
+                  <c:v>73.210895038199993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0092978759</c:v>
+                  <c:v>77.864819277099997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.060177833800001</c:v>
+                  <c:v>78.176550152000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.361945945900001</c:v>
+                  <c:v>73.656000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1867107712"/>
-        <c:axId val="1867109344"/>
+        <c:axId val="-1377605056"/>
+        <c:axId val="-1377604512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1867107712"/>
+        <c:axId val="-1377605056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867109344"/>
+        <c:crossAx val="-1377604512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,10 +1211,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1867109344"/>
+        <c:axId val="-1377604512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20.5"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1319,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867107712"/>
+        <c:crossAx val="-1377605056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2845,7 +2845,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20.956918615799999</v>
+        <v>65.549511694700001</v>
       </c>
       <c r="C2" s="1">
-        <v>20.926924703000001</v>
+        <v>65.367965004400006</v>
       </c>
       <c r="D2" s="1">
         <v>22.4006530612</v>
@@ -2884,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20.931425768299999</v>
+        <v>65.395283116900004</v>
       </c>
       <c r="C3" s="1">
-        <v>20.971031679999999</v>
+        <v>65.633923793400001</v>
       </c>
       <c r="D3" s="1">
         <v>22.292171841799998</v>
@@ -2898,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20.9257656847</v>
+        <v>65.362594107999996</v>
       </c>
       <c r="C4" s="1">
-        <v>20.944661092600001</v>
+        <v>65.475687925200006</v>
       </c>
       <c r="D4" s="1">
         <v>22.281799091900002</v>
@@ -2912,10 +2912,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>21.0131963177</v>
+        <v>65.868608136999995</v>
       </c>
       <c r="C5" s="1">
-        <v>20.9404390686</v>
+        <v>65.446533575299995</v>
       </c>
       <c r="D5" s="1">
         <v>22.365589787200001</v>
@@ -2926,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>21.2963514584</v>
+        <v>67.585286084700002</v>
       </c>
       <c r="C6" s="1">
-        <v>21.3184584499</v>
+        <v>67.714243950599993</v>
       </c>
       <c r="D6" s="1">
         <v>24.012645336999999</v>
@@ -2940,10 +2940,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>22.649775699500001</v>
+        <v>75.706401103999994</v>
       </c>
       <c r="C7" s="1">
-        <v>22.825978662400001</v>
+        <v>76.764787878800007</v>
       </c>
       <c r="D7" s="1">
         <v>30.0788154066</v>
@@ -2954,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>22.190385531099999</v>
+        <v>72.949754152799997</v>
       </c>
       <c r="C8" s="1">
-        <v>22.233667196399999</v>
+        <v>73.210895038199993</v>
       </c>
       <c r="D8" s="1">
         <v>28.467636120200002</v>
@@ -2968,10 +2968,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>22.9606244354</v>
+        <v>77.571580264100007</v>
       </c>
       <c r="C9" s="1">
-        <v>23.0092978759</v>
+        <v>77.864819277099997</v>
       </c>
       <c r="D9" s="1">
         <v>31.834152913400001</v>
@@ -2982,10 +2982,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>23.0159259727</v>
+        <v>77.9068989899</v>
       </c>
       <c r="C10" s="1">
-        <v>23.060177833800001</v>
+        <v>78.176550152000004</v>
       </c>
       <c r="D10" s="1">
         <v>32.123039826099998</v>
@@ -2996,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>22.181209302300001</v>
+        <v>72.806399999999996</v>
       </c>
       <c r="C11" s="2">
-        <v>22.361945945900001</v>
+        <v>73.656000000000006</v>
       </c>
       <c r="D11" s="2">
         <v>34.489592375100003</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C14">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.45421106412482459</v>
+        <v>0.45764002838827011</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/vegas-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/vegas-vegas/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>CBR</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Vegas Flow 2</t>
-  </si>
-  <si>
-    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -503,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1377591456"/>
-        <c:axId val="-1377590368"/>
+        <c:axId val="188722384"/>
+        <c:axId val="188717488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1377591456"/>
+        <c:axId val="188722384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1377590368"/>
+        <c:crossAx val="188717488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1377590368"/>
+        <c:axId val="188717488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1377591456"/>
+        <c:crossAx val="188722384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1377605056"/>
-        <c:axId val="-1377604512"/>
+        <c:axId val="188724560"/>
+        <c:axId val="188710416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1377605056"/>
+        <c:axId val="188724560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1377604512"/>
+        <c:crossAx val="188710416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1377604512"/>
+        <c:axId val="188710416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -1319,7 +1316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1377605056"/>
+        <c:crossAx val="188724560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3005,15 +3002,6 @@
         <v>34.489592375100003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.45764002838827011</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
